--- a/api.xlsx
+++ b/api.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ins25k/Desktop/GithubReposit/eleKant_server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/son/git/eleKant_Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B404227D-AF0E-3E47-AE04-1845BFBAA3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48089B50-4CF1-1044-8E94-46D1A656CAEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="840" windowWidth="20900" windowHeight="18780" xr2:uid="{E271D36A-6C48-6B4C-A160-677CB1A463A2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{E271D36A-6C48-6B4C-A160-677CB1A463A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,13 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Password:String
-Email:String
-nickname:String
-InterestField:enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일 인증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,54 +139,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>멘토페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심분야기반 목록불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mentor/Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword:String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 목록불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mentor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Email:String
-Password:String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심분야기반 목록불러오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MentorName:String
+Nickname:String
+IsMentor:boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/verifyingmentor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/verifyedmentor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토인증여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMentor:boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제해도될듯?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디찾기??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/finder/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/finder/findpassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/finder/changepassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password:String
+confirmpassword:String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(List)
+PresentMentor:String
+MentorName:String
 Hashtag:String
 MentorComment:String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>멘토 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mentor/Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyword:String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 목록불러오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mentor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type:enum
+    <t>(List)
+Type:enum
 Title:String
 Writer:String
 Date:Datetime
@@ -202,122 +288,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/board/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage</t>
+    <t>Id:String Password:String
+Email:String
+nickname:String
+InterestField:enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id:String
+Password:String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Email:String
-Nickname:String
-IsMentor:boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/verifyingmentor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/verifyedmentor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토인증여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsMentor:boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토인증</t>
+VerifiedCode:String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email:String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifiedCode:String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Company:enum
-email:String
-VerifiedCode:String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제해도될듯?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디찾기??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email:String
-VerifiedCode:String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/finder/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/finder/findpassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/finder/changepassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password:String
-confirmpassword:String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(List)
-PresentMentor:String
-MentorName:String
+email:String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(List)    MentorName:String
 Hashtag:String
 MentorComment:String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(List)
-Type:enum
+    <t>(List)Type:enum
 Title:String
 Writer:String
 Date:Datetime
@@ -713,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC94E83-4EB6-CB43-B894-CE70208DEA7C}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -791,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -823,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="119" customHeight="1">
@@ -846,7 +857,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>201</v>
@@ -855,39 +866,39 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38">
@@ -901,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -910,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>201</v>
@@ -919,21 +930,21 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="95">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -951,27 +962,27 @@
         <v>14</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="76">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>14</v>
@@ -983,21 +994,21 @@
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="133">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1015,27 +1026,27 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="114">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>14</v>
@@ -1047,21 +1058,21 @@
         <v>14</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1079,21 +1090,21 @@
         <v>14</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1111,21 +1122,21 @@
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="57">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="38">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -1134,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H13">
         <v>201</v>
@@ -1143,102 +1154,102 @@
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>14</v>
@@ -1252,16 +1263,16 @@
     </row>
     <row r="18" spans="1:10" ht="38">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -1270,7 +1281,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H18">
         <v>201</v>
@@ -1284,16 +1295,16 @@
     </row>
     <row r="19" spans="1:10" ht="38">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -1302,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H19">
         <v>201</v>
